--- a/DATA/IsoData/ONAQIsoData.xlsx
+++ b/DATA/IsoData/ONAQIsoData.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="141">
   <si>
     <t xml:space="preserve">uid</t>
   </si>
@@ -65,7 +65,10 @@
     <t xml:space="preserve">publicationDate</t>
   </si>
   <si>
-    <t xml:space="preserve">ed75636e-d435-4543-8a67-fef1161343a1</t>
+    <t xml:space="preserve">release</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b402919e-a5e5-42f3-9622-b5542ce0e8ef</t>
   </si>
   <si>
     <t xml:space="preserve">ONAQ.TOS.wet.deposition</t>
@@ -86,10 +89,13 @@
     <t xml:space="preserve">OK</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T161750Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c3af194e-c2a4-4ddd-b5d5-38624f9a9e2b</t>
+    <t xml:space="preserve">20210112T154806Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RELEASE-2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8a749012-d149-4ebd-b0c2-9b68cc2f19ea</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.ONAQ.20181213.1103</t>
@@ -101,10 +107,10 @@
     <t xml:space="preserve">A00000057208</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T162608Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09724a6a-95b6-4e25-ae3c-8530dec6c83c</t>
+    <t xml:space="preserve">20210112T161411Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ff60a612-b074-4499-87e0-8c4466c88733</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.ONAQ.20181228.1233</t>
@@ -116,7 +122,7 @@
     <t xml:space="preserve">A00000057046</t>
   </si>
   <si>
-    <t xml:space="preserve">f3cd9bc2-7600-42ce-8bde-66c470a92a07</t>
+    <t xml:space="preserve">dad83904-02f4-40c4-a24a-c658f205e2b3</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.ONAQ.20190109.1058</t>
@@ -128,10 +134,10 @@
     <t xml:space="preserve">A00000057043</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T155312Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6c17072f-7f62-467f-bf3d-2396b89ebf4b</t>
+    <t xml:space="preserve">20210112T162031Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86a8972d-bd39-4435-a992-21d07f66aa48</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.ONAQ.20190122.1140</t>
@@ -143,7 +149,7 @@
     <t xml:space="preserve">A00000057042</t>
   </si>
   <si>
-    <t xml:space="preserve">1b574b8d-d461-4683-876d-a247c99a173e</t>
+    <t xml:space="preserve">5ed4bca4-1bf3-48b5-bbf4-b0b6e9c02e6b</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.ONAQ.20190502.1414</t>
@@ -155,10 +161,10 @@
     <t xml:space="preserve">A00000057227</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T153345Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">940e3aaf-39c7-4b5e-91b6-15c4dc8364ab</t>
+    <t xml:space="preserve">20210112T162223Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5908c801-d429-4e3d-baa4-a40a09c71f15</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.ONAQ.20190517.1049</t>
@@ -170,7 +176,7 @@
     <t xml:space="preserve">A00000057457</t>
   </si>
   <si>
-    <t xml:space="preserve">68cf4f0a-902f-4bd4-937f-fea61b74c81f</t>
+    <t xml:space="preserve">23c897fe-cfd1-44ec-8a50-a22911e73afe</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.ONAQ.20190530.1009</t>
@@ -182,7 +188,7 @@
     <t xml:space="preserve">A00000057232</t>
   </si>
   <si>
-    <t xml:space="preserve">58d7e4d0-d15f-4d4e-a685-b0ea11a68e13</t>
+    <t xml:space="preserve">188a82c8-9403-4465-86c1-920f20d1fcd8</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.ONAQ.20190613.1033</t>
@@ -194,10 +200,10 @@
     <t xml:space="preserve">A00000057235</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T153103Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c5bbff97-05fa-4267-8ed4-4b84b2e3306e</t>
+    <t xml:space="preserve">20210112T162154Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">942c07b2-f3ee-41e4-9467-ad259d883d12</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.ONAQ.20190627.1315</t>
@@ -209,7 +215,7 @@
     <t xml:space="preserve">A00000057246</t>
   </si>
   <si>
-    <t xml:space="preserve">4698802c-5c58-4ff5-9ce1-492466f18099</t>
+    <t xml:space="preserve">2163dd04-39fa-405a-a34c-cf07b12273b2</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.ONAQ.20190711.0933</t>
@@ -221,10 +227,10 @@
     <t xml:space="preserve">A00000057250</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T153700Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2eb30d47-bc0d-4f1d-8f2c-a0a9ad13efe1</t>
+    <t xml:space="preserve">20210112T164656Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">830a3eb7-1461-439b-be3f-608023fb8ced</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.ONAQ.20190724.1445</t>
@@ -236,7 +242,7 @@
     <t xml:space="preserve">A00000058703</t>
   </si>
   <si>
-    <t xml:space="preserve">b92d414e-afb9-4183-ab36-610b77537566</t>
+    <t xml:space="preserve">ce130533-d8dc-4aed-9b42-a4a376581d50</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.ONAQ.20190806.1012</t>
@@ -248,10 +254,10 @@
     <t xml:space="preserve">A00000058708</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T162102Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0e3bb5b7-80a4-40dc-9d39-7c5f799e4a77</t>
+    <t xml:space="preserve">20210112T155532Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1b6359b5-e22b-40db-8951-1a56f52a1221</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.ONAQ.20190821.1020</t>
@@ -263,7 +269,7 @@
     <t xml:space="preserve">A00000058603</t>
   </si>
   <si>
-    <t xml:space="preserve">ae83d923-a87c-4d7e-b6c4-6a8a883cbdd3</t>
+    <t xml:space="preserve">3862ba27-56e7-449a-88f3-81bda4dca5fe</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.ONAQ.20190905.1048</t>
@@ -275,10 +281,10 @@
     <t xml:space="preserve">A00000058618</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T161804Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f7fb1abf-169e-4716-9564-f0d3028ee65d</t>
+    <t xml:space="preserve">20210112T154930Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">896bc8ea-4e9c-4269-8337-f6ee845b9f2b</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.ONAQ.20190919.1408</t>
@@ -290,7 +296,7 @@
     <t xml:space="preserve">A00000058639</t>
   </si>
   <si>
-    <t xml:space="preserve">d456b15a-404f-49a4-ae1b-60d7e9f44e33</t>
+    <t xml:space="preserve">0ce51450-2770-4b67-b466-7aab79aeb3fa</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.ONAQ.20191002.1042</t>
@@ -302,10 +308,10 @@
     <t xml:space="preserve">A00000057440</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T162904Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3a8cb36f-04cc-4174-825c-99efb5324acd</t>
+    <t xml:space="preserve">20210112T162551Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7ded3d07-a64a-47ce-8bde-859eeb846de2</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.ONAQ.20191029.1040</t>
@@ -317,7 +323,7 @@
     <t xml:space="preserve">A00000057456</t>
   </si>
   <si>
-    <t xml:space="preserve">46a2d927-feb0-4cd7-a61e-fb9f220cc47f</t>
+    <t xml:space="preserve">01588249-1707-471f-a3af-1ec21e75ca56</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.ONAQ.20191126.1121</t>
@@ -329,10 +335,10 @@
     <t xml:space="preserve">A00000057453</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T162149Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0c8e993e-cfd2-48d9-ab6d-babaac4531ea</t>
+    <t xml:space="preserve">20210112T155815Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dd25843c-e64a-442d-a0f3-07623a522f61</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.ONAQ.20191211.1037</t>
@@ -344,10 +350,10 @@
     <t xml:space="preserve">A00000057446</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T161357Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3aa8682d-0bd2-4dd5-b51a-06b2b9a5d962</t>
+    <t xml:space="preserve">20210112T155159Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1a72b55a-bbe1-4e54-90f7-07035c76f73d</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.ONAQ.20191224.0938</t>
@@ -359,7 +365,7 @@
     <t xml:space="preserve">A00000058688</t>
   </si>
   <si>
-    <t xml:space="preserve">3cdc9926-2fdf-4fe5-9325-18c2ba9410b7</t>
+    <t xml:space="preserve">e346552d-ceec-4f3e-8952-4e58237bc0c9</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.ONAQ.20200106.1045</t>
@@ -371,10 +377,13 @@
     <t xml:space="preserve">A00000057467</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T153925Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4e3a4c1c-1f99-468e-bbba-b973ef59e6a4</t>
+    <t xml:space="preserve">20210112T163523Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROVISIONAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0ab911a9-bca8-4f77-b42d-7fc2c490db2c</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.ONAQ.20200120.1036</t>
@@ -386,7 +395,7 @@
     <t xml:space="preserve">A00000057449</t>
   </si>
   <si>
-    <t xml:space="preserve">2f0f43ad-6685-4d07-b738-b2ab7e892d0f</t>
+    <t xml:space="preserve">46372b49-74d7-4574-ad14-c749e8b8776c</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.ONAQ.20200205.1000</t>
@@ -398,7 +407,34 @@
     <t xml:space="preserve">A00000058668</t>
   </si>
   <si>
-    <t xml:space="preserve">20200601T132721Z</t>
+    <t xml:space="preserve">20210112T162701Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ff0a3154-e992-4b3c-8b8f-80b2096049b2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.ONAQ.20200219.0900</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.ONAQ.20200219.0900.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000116755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dd48d59a-6754-4f39-8d73-8b8e46dfdf9d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.ONAQ.20201013.1045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.ONAQ.20201013.1045.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000116779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20210201T154223Z</t>
   </si>
 </sst>
 </file>
@@ -736,7 +772,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -790,23 +826,26 @@
       <c r="Q1" t="s">
         <v>16</v>
       </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2"/>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>43389.8125</v>
@@ -827,35 +866,38 @@
         <v>0.237</v>
       </c>
       <c r="M2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N2" s="1" t="n">
         <v>43468.7916666667</v>
       </c>
       <c r="O2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P2"/>
       <c r="Q2" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="R2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D3"/>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>43433.8138888889</v>
@@ -876,35 +918,38 @@
         <v>0.028</v>
       </c>
       <c r="M3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N3" s="1" t="n">
         <v>43528.7916666667</v>
       </c>
       <c r="O3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P3"/>
       <c r="Q3" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="R3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D4"/>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G4" s="1" t="n">
         <v>43447.7590277778</v>
@@ -925,35 +970,38 @@
         <v>0.152</v>
       </c>
       <c r="M4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N4" s="1" t="n">
         <v>43528.7916666667</v>
       </c>
       <c r="O4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P4"/>
       <c r="Q4" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="R4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D5"/>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G5" s="1" t="n">
         <v>43462.8145833333</v>
@@ -974,35 +1022,38 @@
         <v>0.174</v>
       </c>
       <c r="M5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N5" s="1" t="n">
         <v>43528.7916666667</v>
       </c>
       <c r="O5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P5"/>
       <c r="Q5" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+      <c r="R5" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D6"/>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G6" s="1" t="n">
         <v>43474.7541666667</v>
@@ -1023,35 +1074,38 @@
         <v>0.223</v>
       </c>
       <c r="M6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N6" s="1" t="n">
         <v>43528.7916666667</v>
       </c>
       <c r="O6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P6"/>
       <c r="Q6" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+      <c r="R6" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D7"/>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G7" s="1" t="n">
         <v>43573.8298611111</v>
@@ -1072,35 +1126,38 @@
         <v>0.079</v>
       </c>
       <c r="M7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N7" s="1" t="n">
         <v>43658.75</v>
       </c>
       <c r="O7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P7"/>
       <c r="Q7" t="s">
-        <v>47</v>
+        <v>49</v>
+      </c>
+      <c r="R7" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D8"/>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G8" s="1" t="n">
         <v>43587.8576388889</v>
@@ -1121,35 +1178,38 @@
         <v>0.318</v>
       </c>
       <c r="M8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N8" s="1" t="n">
         <v>43658.75</v>
       </c>
       <c r="O8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P8"/>
       <c r="Q8" t="s">
-        <v>47</v>
+        <v>49</v>
+      </c>
+      <c r="R8" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D9"/>
       <c r="E9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G9" s="1" t="n">
         <v>43602.7513888889</v>
@@ -1170,35 +1230,38 @@
         <v>0.273</v>
       </c>
       <c r="M9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N9" s="1" t="n">
         <v>43675.75</v>
       </c>
       <c r="O9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P9"/>
       <c r="Q9" t="s">
-        <v>47</v>
+        <v>49</v>
+      </c>
+      <c r="R9" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D10"/>
       <c r="E10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G10" s="1" t="n">
         <v>43615.6833333333</v>
@@ -1219,35 +1282,38 @@
         <v>0.099</v>
       </c>
       <c r="M10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N10" s="1" t="n">
         <v>43720.75</v>
       </c>
       <c r="O10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P10"/>
       <c r="Q10" t="s">
-        <v>60</v>
+        <v>62</v>
+      </c>
+      <c r="R10" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D11"/>
       <c r="E11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G11" s="1" t="n">
         <v>43629.6902777778</v>
@@ -1268,35 +1334,38 @@
         <v>0.153</v>
       </c>
       <c r="M11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N11" s="1" t="n">
         <v>43720.75</v>
       </c>
       <c r="O11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P11"/>
       <c r="Q11" t="s">
-        <v>60</v>
+        <v>62</v>
+      </c>
+      <c r="R11" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D12"/>
       <c r="E12" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F12" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G12" s="1" t="n">
         <v>43643.8104166667</v>
@@ -1317,35 +1386,38 @@
         <v>0.161</v>
       </c>
       <c r="M12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N12" s="1" t="n">
         <v>43720.75</v>
       </c>
       <c r="O12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P12"/>
       <c r="Q12" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="R12" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D13"/>
       <c r="E13" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F13" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G13" s="1" t="n">
         <v>43657.6555555556</v>
@@ -1366,35 +1438,38 @@
         <v>0.151</v>
       </c>
       <c r="M13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N13" s="1" t="n">
         <v>43720.75</v>
       </c>
       <c r="O13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P13"/>
       <c r="Q13" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="R13" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D14"/>
       <c r="E14" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F14" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G14" s="1" t="n">
         <v>43670.8666666667</v>
@@ -1415,35 +1490,38 @@
         <v>0.19</v>
       </c>
       <c r="M14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N14" s="1" t="n">
         <v>43720.75</v>
       </c>
       <c r="O14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P14"/>
       <c r="Q14" t="s">
-        <v>78</v>
+        <v>80</v>
+      </c>
+      <c r="R14" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D15"/>
       <c r="E15" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F15" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G15" s="1" t="n">
         <v>43683.675</v>
@@ -1464,35 +1542,38 @@
         <v>0.274</v>
       </c>
       <c r="M15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N15" s="1" t="n">
         <v>43805.7916666667</v>
       </c>
       <c r="O15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P15"/>
       <c r="Q15" t="s">
-        <v>78</v>
+        <v>80</v>
+      </c>
+      <c r="R15" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D16"/>
       <c r="E16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F16" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G16" s="1" t="n">
         <v>43698.6875</v>
@@ -1513,35 +1594,38 @@
         <v>0.212</v>
       </c>
       <c r="M16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N16" s="1" t="n">
         <v>43805.7916666667</v>
       </c>
       <c r="O16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P16"/>
       <c r="Q16" t="s">
-        <v>87</v>
+        <v>89</v>
+      </c>
+      <c r="R16" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D17"/>
       <c r="E17" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F17" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G17" s="1" t="n">
         <v>43713.70625</v>
@@ -1562,35 +1646,38 @@
         <v>0.093</v>
       </c>
       <c r="M17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N17" s="1" t="n">
         <v>43805.7916666667</v>
       </c>
       <c r="O17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P17"/>
       <c r="Q17" t="s">
-        <v>87</v>
+        <v>89</v>
+      </c>
+      <c r="R17" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D18"/>
       <c r="E18" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F18" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G18" s="1" t="n">
         <v>43727.7069444444</v>
@@ -1611,35 +1698,38 @@
         <v>0.389</v>
       </c>
       <c r="M18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N18" s="1" t="n">
         <v>43805.7916666667</v>
       </c>
       <c r="O18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P18"/>
       <c r="Q18" t="s">
-        <v>96</v>
+        <v>98</v>
+      </c>
+      <c r="R18" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D19"/>
       <c r="E19" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F19" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G19" s="1" t="n">
         <v>43754.8645833333</v>
@@ -1660,35 +1750,38 @@
         <v>0.156</v>
       </c>
       <c r="M19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N19" s="1" t="n">
         <v>43853.7916666667</v>
       </c>
       <c r="O19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P19"/>
       <c r="Q19" t="s">
-        <v>96</v>
+        <v>98</v>
+      </c>
+      <c r="R19" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D20"/>
       <c r="E20" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F20" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G20" s="1" t="n">
         <v>43782.7340277778</v>
@@ -1709,35 +1802,38 @@
         <v>0.12</v>
       </c>
       <c r="M20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N20" s="1" t="n">
         <v>43853.7916666667</v>
       </c>
       <c r="O20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P20"/>
       <c r="Q20" t="s">
-        <v>105</v>
+        <v>107</v>
+      </c>
+      <c r="R20" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D21"/>
       <c r="E21" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F21" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G21" s="1" t="n">
         <v>43795.7708333333</v>
@@ -1758,35 +1854,38 @@
         <v>0.168</v>
       </c>
       <c r="M21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N21" s="1" t="n">
         <v>43889.7916666667</v>
       </c>
       <c r="O21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P21"/>
       <c r="Q21" t="s">
-        <v>110</v>
+        <v>112</v>
+      </c>
+      <c r="R21" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C22" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D22"/>
       <c r="E22" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F22" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G22" s="1" t="n">
         <v>43810.7451388889</v>
@@ -1807,35 +1906,38 @@
         <v>0.144</v>
       </c>
       <c r="M22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N22" s="1" t="n">
         <v>43889.7916666667</v>
       </c>
       <c r="O22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P22"/>
       <c r="Q22" t="s">
-        <v>110</v>
+        <v>112</v>
+      </c>
+      <c r="R22" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B23" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D23"/>
       <c r="E23" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F23" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G23" s="1" t="n">
         <v>43823.7006944444</v>
@@ -1856,35 +1958,38 @@
         <v>0.107</v>
       </c>
       <c r="M23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N23" s="1" t="n">
         <v>43889.7916666667</v>
       </c>
       <c r="O23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P23"/>
       <c r="Q23" t="s">
-        <v>119</v>
+        <v>121</v>
+      </c>
+      <c r="R23" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B24" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C24" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D24"/>
       <c r="E24" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F24" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="G24" s="1" t="n">
         <v>43836.74375</v>
@@ -1905,35 +2010,38 @@
         <v>0.098</v>
       </c>
       <c r="M24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N24" s="1" t="n">
         <v>43889.7916666667</v>
       </c>
       <c r="O24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P24"/>
       <c r="Q24" t="s">
-        <v>119</v>
+        <v>121</v>
+      </c>
+      <c r="R24" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B25" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C25" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D25"/>
       <c r="E25" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F25" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="G25" s="1" t="n">
         <v>43850.7486111111</v>
@@ -1954,17 +2062,124 @@
         <v>0.165</v>
       </c>
       <c r="M25" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N25" s="1" t="n">
         <v>43889.7916666667</v>
       </c>
       <c r="O25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P25"/>
       <c r="Q25" t="s">
-        <v>128</v>
+        <v>131</v>
+      </c>
+      <c r="R25" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>132</v>
+      </c>
+      <c r="B26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" t="s">
+        <v>133</v>
+      </c>
+      <c r="D26"/>
+      <c r="E26" t="s">
+        <v>134</v>
+      </c>
+      <c r="F26" t="s">
+        <v>135</v>
+      </c>
+      <c r="G26" s="1" t="n">
+        <v>43866.7194444444</v>
+      </c>
+      <c r="H26" s="1" t="n">
+        <v>43880.6666666667</v>
+      </c>
+      <c r="I26" t="n">
+        <v>-10.989</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-100.692</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.042</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.301</v>
+      </c>
+      <c r="M26" t="s">
+        <v>23</v>
+      </c>
+      <c r="N26" s="1" t="n">
+        <v>44117.75</v>
+      </c>
+      <c r="O26" t="s">
+        <v>24</v>
+      </c>
+      <c r="P26"/>
+      <c r="Q26" t="s">
+        <v>131</v>
+      </c>
+      <c r="R26" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>136</v>
+      </c>
+      <c r="B27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" t="s">
+        <v>137</v>
+      </c>
+      <c r="D27"/>
+      <c r="E27" t="s">
+        <v>138</v>
+      </c>
+      <c r="F27" t="s">
+        <v>139</v>
+      </c>
+      <c r="G27" s="1" t="n">
+        <v>44110.6875</v>
+      </c>
+      <c r="H27" s="1" t="n">
+        <v>44117.6979166667</v>
+      </c>
+      <c r="I27" t="n">
+        <v>-9.07</v>
+      </c>
+      <c r="J27" t="n">
+        <v>-72.726</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.054</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.221</v>
+      </c>
+      <c r="M27" t="s">
+        <v>23</v>
+      </c>
+      <c r="N27" s="1" t="n">
+        <v>44148.7916666667</v>
+      </c>
+      <c r="O27" t="s">
+        <v>24</v>
+      </c>
+      <c r="P27"/>
+      <c r="Q27" t="s">
+        <v>140</v>
+      </c>
+      <c r="R27" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
